--- a/pdf/python/Author/Lutz, Mark.xlsx
+++ b/pdf/python/Author/Lutz, Mark.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>author</t>
   </si>
@@ -25,34 +25,37 @@
     <t>Lutz, Mark</t>
   </si>
   <si>
-    <t>https://blog.csdn.net/qq_28901391/article/details/78123316</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/RememberMePlease/article/details/79702076</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/sxyyu1/article/details/81366526</t>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/33078620</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/kaid/p/7992240.html</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/whaoxysh/article/details/22295317</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/jinxiaonian11/article/details/83542696</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/zhangxinqi/p/9201594.html</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/328356/extracting-text-from-html-file-using-python</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/cnmilan/article/details/8727308</t>
+    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%22Lutz%2C+Mark%22+intext%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://scholarspace.manoa.hawaii.edu/html/10125/1725/robinson.pdf</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.659.8557&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=gMBdvVktho4C&amp;oi=fnd&amp;pg=PR5&amp;dq=author%22Lutz,+Mark%22+intext%22python%22&amp;ots=V90JQbAEoh&amp;sig=IGSgzaeELlqhgY4qLo2nHpGEqt8</t>
+  </si>
+  <si>
+    <t>https://minerva-access.unimelb.edu.au/bitstream/handle/11343/31276/280690_85739.pdf?sequence=1</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=5fujAgAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=author%22Lutz,+Mark%22+intext%22python%22&amp;ots=w0O7ggbEVJ&amp;sig=wmqQGAgRhx53_7PVNQ3C4G_em7U</t>
+  </si>
+  <si>
+    <t>http://lup.lub.lu.se/student-papers/record/3566754</t>
+  </si>
+  <si>
+    <t>https://www.jbe-platform.com/content/journals/10.1075/dia.31.1.03zen</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/view/j/cog.2012.23.issue-4/cog-2012-0023/cog-2012-0023.xml</t>
+  </si>
+  <si>
+    <t>https://vtechworks.lib.vt.edu/handle/10919/36972</t>
+  </si>
+  <si>
+    <t>https://www.ingentaconnect.com/content/jbp/dia/2014/00000031/00000001/art00003</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,6 +475,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -484,6 +492,7 @@
     <hyperlink ref="B9" r:id="rId8"/>
     <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
